--- a/Table1.xlsx
+++ b/Table1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baral\Google Drive\2018\Semester 1\CBI 310\Tutorials\Tutorial 8\Tut 8b\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF985C0-D51F-46B1-8730-9ADCE96A993D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0596771-88B7-41C4-B8BD-A02932142637}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="636" yWindow="1176" windowWidth="28164" windowHeight="16884" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -543,7 +543,7 @@
   <dimension ref="B2:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
